--- a/medicine/Bioéthique/Blé_génétiquement_modifié/Blé_génétiquement_modifié.xlsx
+++ b/medicine/Bioéthique/Blé_génétiquement_modifié/Blé_génétiquement_modifié.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bl%C3%A9_g%C3%A9n%C3%A9tiquement_modifi%C3%A9</t>
+          <t>Blé_génétiquement_modifié</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un blé génétiquement modifié est une variété de blé dont le patrimoine génétique a été modifié par ingénierie génétique. Un blé transgénique est un cultivar au génome duquel a été introduit, par transgenèse, un ou plusieurs gènes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bl%C3%A9_g%C3%A9n%C3%A9tiquement_modifi%C3%A9</t>
+          <t>Blé_génétiquement_modifié</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>États-Unis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Entre 1997 et 2005, Monsanto a mené 256 essais de culture de blés génétiquement modifiés en plein champ, dans seize États des États-Unis[1].
-Aucun blé génétiquement modifié n'est autorisé pour être cultivé commercialement aux États-Unis[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre 1997 et 2005, Monsanto a mené 256 essais de culture de blés génétiquement modifiés en plein champ, dans seize États des États-Unis.
+Aucun blé génétiquement modifié n'est autorisé pour être cultivé commercialement aux États-Unis.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bl%C3%A9_g%C3%A9n%C3%A9tiquement_modifi%C3%A9</t>
+          <t>Blé_génétiquement_modifié</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Argentine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2020, pour la première fois, un blé génétiquement modifié est autorisé à la production pour sa résistance à la sécheresse en Argentine[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2020, pour la première fois, un blé génétiquement modifié est autorisé à la production pour sa résistance à la sécheresse en Argentine
 </t>
         </is>
       </c>
